--- a/data/Subset1_WithDialogActs/Norway Teacher_grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Norway Teacher_grade 4.xlsx_with_dialog_acts.xlsx
@@ -543,12 +543,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -847,12 +847,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2253,12 +2253,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2291,12 +2291,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2519,12 +2519,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2557,12 +2557,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2899,12 +2899,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2937,12 +2937,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3013,12 +3013,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3241,12 +3241,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3657,12 +3657,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4003,12 +4003,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4231,12 +4231,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4687,12 +4687,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4991,12 +4991,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5333,12 +5333,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5755,12 +5755,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5793,12 +5793,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6171,12 +6171,12 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6247,12 +6247,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6517,12 +6517,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6973,12 +6973,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7387,12 +7387,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7615,12 +7615,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7767,12 +7767,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8147,12 +8147,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8185,12 +8185,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8375,12 +8375,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8413,12 +8413,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8527,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8679,12 +8679,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8717,12 +8717,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8831,12 +8831,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9249,12 +9249,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9591,12 +9591,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9705,12 +9705,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9857,12 +9857,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9895,12 +9895,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9933,12 +9933,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9971,12 +9971,12 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10047,12 +10047,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10199,12 +10199,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10431,12 +10431,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10469,12 +10469,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10507,12 +10507,12 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10581,12 +10581,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10619,12 +10619,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10657,12 +10657,12 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11265,12 +11265,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
